--- a/biology/Origine et évolution du vivant/Plumatella_fruticosa/Plumatella_fruticosa.xlsx
+++ b/biology/Origine et évolution du vivant/Plumatella_fruticosa/Plumatella_fruticosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plumatella fruticosa est l’une des 94 espèces de bryozoaire d'eau douce (74 espèces de phylactolaemates et  20 gymnolaemates selon les données revues par JA Massard &amp; G Geimer en 2008[1]) au sein de la famille des Plumatellidae.
-Cette espèce a été décrite par le zoologiste George James Allman en 1844[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plumatella fruticosa est l’une des 94 espèces de bryozoaire d'eau douce (74 espèces de phylactolaemates et  20 gymnolaemates selon les données revues par JA Massard &amp; G Geimer en 2008) au sein de la famille des Plumatellidae.
+Cette espèce a été décrite par le zoologiste George James Allman en 1844.
 </t>
         </is>
       </c>
@@ -512,12 +524,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom de genre (Plumatella) provient du fait que, vu de près, ses polypes donnent à une colonie dense un aspect « plumeux » ;
-Son nom d'espèce est « fruticosa»
-Synonymie
-Cette espèce a antérieurement aussi été nommée (ou confondu avec)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Son nom de genre (Plumatella) provient du fait que, vu de près, ses polypes donnent à une colonie dense un aspect « plumeux » ;
+Son nom d'espèce est « fruticosa»</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plumatella_fruticosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plumatella_fruticosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a antérieurement aussi été nommée (ou confondu avec) :
 Plumatella fruticosa (Allman 1844)
 Plumatella lucifuga (Jullien 1885)
 Plumatella princeps var. fruticosa (Kraeplin 1887)
@@ -535,70 +583,74 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Plumatella_fruticosa</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plumatella_fruticosa</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description, caractéristiques et identification taxonomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bryozoaire forme des clonies en forme de petites arborescences non rampantes. Les branches de la colonie sont brunâtre (ambre-brun à brun-jaunâtre ou brun-vert).
-P. fruticosa ressemble fortement à Fredericella sultana[4], mais s'en distingue par des polypes en forme de fer à cheval[5]. À première vue le polype (à peine visible à l'œil nu) a une forme en massue. Les tentacules de la couronne du polype sont au nombre de 30 à 60[3].
+P. fruticosa ressemble fortement à Fredericella sultana, mais s'en distingue par des polypes en forme de fer à cheval. À première vue le polype (à peine visible à l'œil nu) a une forme en massue. Les tentacules de la couronne du polype sont au nombre de 30 à 60.
 Les zoïdes de cette espèce mesurent chacun environ 2 mm long, mais forme des colonies dont les ramifications régulières se développant plutôt « à plat », formant une sorte de petit tapis sur la surface du substrat dur colonisé. Une partie de la colonie peut être en libre suspension dans l'eau (sous une branche immergée par exemple).
 Les branches de la colonies, notamment constituées de chitine sont régulières et largement réparties.
 Si la surface du substrat est limitée, la croissance est plus « touffue ».
 Les zooïdes-mères) qui sont à l'origine d'une colonie ou d'un embranchement produisent des individus filles qui formeront à leur tour de nouvelles "branches".
-Selon Mundy[6], les colonies ne sont attachées au substrat qu'en un ou quelques points, les branches sont pour la plupart libres d'onduler dans le courant et la coupe des zooïdes montre un diamètre " triangulaires " (en coupe transversal). Le zooicum est fragile (sa membrane est fine).
+Selon Mundy, les colonies ne sont attachées au substrat qu'en un ou quelques points, les branches sont pour la plupart libres d'onduler dans le courant et la coupe des zooïdes montre un diamètre " triangulaires " (en coupe transversal). Le zooicum est fragile (sa membrane est fine).
 Les critères les plus crédibles pour l'identifications sont la forme et structure des flottoblastes (statoblastes à anneau flottant) qui doivent être observés au microscope optique ou au microscope électronique.
-Ces statoblastes sont visibles en transparence dans le corps (dans les « branches ») de l'animal lors de leur formation[3].
+Ces statoblastes sont visibles en transparence dans le corps (dans les « branches ») de l'animal lors de leur formation.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Plumatella_fruticosa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plumatella_fruticosa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie, écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces bryozoaires sont filtreurs et suspensivores.
 Les colonies de cette espèces peuvent, dans une eau assez eutrophe former des tapis dense, qui fixent eux-mêmes parfois des matières en suspension (pseudofèces de moules zébrées par exemple) ou des colonies de bactéries filamenteuses ou d'autres bryozoaires.
